--- a/Stocks/smci.xlsx
+++ b/Stocks/smci.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B786B12-F42F-4BD0-984E-63F74B109D1A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Finance/Stocks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="274" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44EAEBA6-54DC-4015-B9D4-5485F5CC36FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -341,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,16 +737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -760,7 +765,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -769,7 +774,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -777,7 +782,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -785,7 +790,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -794,22 +799,22 @@
         <v>13850</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>7</v>
       </c>
@@ -823,14 +828,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FED0F6C-5CBD-4136-A763-2765620FD03D}">
   <dimension ref="A1:CM52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AN29" sqref="AN29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
@@ -838,7 +843,7 @@
     <col min="65" max="65" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1072,7 +1077,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>7853.6587500000005</v>
       </c>
       <c r="AY2" s="5">
-        <f t="shared" ref="AX2:BM2" si="1">+AX2*(1+$AM$16)</f>
+        <f t="shared" ref="AY2:BM2" si="1">+AX2*(1+$AM$16)</f>
         <v>8246.3416875000003</v>
       </c>
       <c r="AZ2" s="5">
@@ -1269,7 +1274,7 @@
         <v>16327.192486855665</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1415,7 +1420,7 @@
       <c r="BL3" s="5"/>
       <c r="BM3" s="5"/>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>2938.8946476340197</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>164.4583394110393</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>507.75479263388212</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>1306.1753989484532</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>1632.7192486855665</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>2680.8341441656453</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>4313.5533928512123</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>776.43961071321814</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>2091.8329444804135</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3437,148 +3442,148 @@
         <v>0.18010809293184529</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3">
-        <f>+B7/B2</f>
+        <f t="shared" ref="B15:AJ15" si="16">+B7/B2</f>
         <v>9.7013541086996835E-2</v>
       </c>
       <c r="C15" s="3">
-        <f>+C7/C2</f>
+        <f t="shared" si="16"/>
         <v>8.6712414223331244E-2</v>
       </c>
       <c r="D15" s="3">
-        <f>+D7/D2</f>
+        <f t="shared" si="16"/>
         <v>0.10769230769230768</v>
       </c>
       <c r="E15" s="3">
-        <f>+E7/E2</f>
+        <f t="shared" si="16"/>
         <v>0.11276355421686746</v>
       </c>
       <c r="F15" s="3">
-        <f>+F7/F2</f>
+        <f t="shared" si="16"/>
         <v>0.11365355521936461</v>
       </c>
       <c r="G15" s="3">
-        <f>+G7/G2</f>
+        <f t="shared" si="16"/>
         <v>9.4390832328106147E-2</v>
       </c>
       <c r="H15" s="3">
-        <f>+H7/H2</f>
+        <f t="shared" si="16"/>
         <v>0.10377358490566038</v>
       </c>
       <c r="I15" s="3">
-        <f>+I7/I2</f>
+        <f t="shared" si="16"/>
         <v>0.10100265408434089</v>
       </c>
       <c r="J15" s="3">
-        <f>+J7/J2</f>
+        <f t="shared" si="16"/>
         <v>0.10701827821961769</v>
       </c>
       <c r="K15" s="3">
-        <f>+K7/K2</f>
+        <f t="shared" si="16"/>
         <v>0.10036275695284159</v>
       </c>
       <c r="L15" s="3">
-        <f>+L7/L2</f>
+        <f t="shared" si="16"/>
         <v>0.10142497904442582</v>
       </c>
       <c r="M15" s="3">
-        <f>+M7/M2</f>
+        <f t="shared" si="16"/>
         <v>9.2492614851787711E-2</v>
       </c>
       <c r="N15" s="3">
-        <f>+N7/N2</f>
+        <f t="shared" si="16"/>
         <v>9.7518278241169806E-2</v>
       </c>
       <c r="O15" s="3">
-        <f>+O7/O2</f>
+        <f t="shared" si="16"/>
         <v>0.10971551261406334</v>
       </c>
       <c r="P15" s="3">
-        <f>+P7/P2</f>
+        <f t="shared" si="16"/>
         <v>0.13382649630127774</v>
       </c>
       <c r="Q15" s="3">
-        <f>+Q7/Q2</f>
+        <f t="shared" si="16"/>
         <v>0.11929290564270663</v>
       </c>
       <c r="R15" s="3">
-        <f>+R7/R2</f>
+        <f t="shared" si="16"/>
         <v>0.122655663915979</v>
       </c>
       <c r="S15" s="3">
-        <f>+S7/S2</f>
+        <f t="shared" si="16"/>
         <v>0.12699506257894133</v>
       </c>
       <c r="T15" s="3">
-        <f>+T7/T2</f>
+        <f t="shared" si="16"/>
         <v>0.15251165199378561</v>
       </c>
       <c r="U15" s="3">
-        <f>+U7/U2</f>
+        <f t="shared" si="16"/>
         <v>0.12732953911393816</v>
       </c>
       <c r="V15" s="3">
-        <f>+V7/V2</f>
+        <f t="shared" si="16"/>
         <v>0.13054316452374704</v>
       </c>
       <c r="W15" s="3">
-        <f>+W7/W2</f>
+        <f t="shared" si="16"/>
         <v>0.11887269661568109</v>
       </c>
       <c r="X15" s="3">
-        <f>+X7/X2</f>
+        <f t="shared" si="16"/>
         <v>0.11831677642594039</v>
       </c>
       <c r="Y15" s="3">
-        <f>+Y7/Y2</f>
+        <f t="shared" si="16"/>
         <v>9.9532273152478964E-2</v>
       </c>
       <c r="Z15" s="3">
-        <f>+Z7/Z2</f>
+        <f t="shared" si="16"/>
         <v>0.10554856202188438</v>
       </c>
       <c r="AA15" s="3">
-        <f>+AA7/AA2</f>
+        <f t="shared" si="16"/>
         <v>9.6127601501194121E-2</v>
       </c>
       <c r="AB15" s="3">
-        <f>+AB7/AB2</f>
+        <f t="shared" si="16"/>
         <v>8.9265953522685362E-2</v>
       </c>
       <c r="AC15" s="3">
-        <f>+AC7/AC2</f>
+        <f t="shared" si="16"/>
         <v>7.4656068480586979E-2</v>
       </c>
       <c r="AD15" s="3">
-        <f>+AD7/AD2</f>
+        <f t="shared" si="16"/>
         <v>6.8786782571135477E-2</v>
       </c>
       <c r="AE15" s="3">
-        <f>+AE7/AE2</f>
+        <f t="shared" si="16"/>
         <v>6.7768411712511092E-2</v>
       </c>
       <c r="AF15" s="3">
-        <f>+AF7/AF2</f>
+        <f t="shared" si="16"/>
         <v>9.9197381750175326E-2</v>
       </c>
       <c r="AG15" s="3">
-        <f>+AG7/AG2</f>
+        <f t="shared" si="16"/>
         <v>6.6318824660167516E-2</v>
       </c>
       <c r="AH15" s="3">
-        <f>+AH7/AH2</f>
+        <f t="shared" si="16"/>
         <v>8.548379487663349E-2</v>
       </c>
       <c r="AI15" s="3">
-        <f>+AI7/AI2</f>
+        <f t="shared" si="16"/>
         <v>5.2634451144642422E-2</v>
       </c>
       <c r="AJ15" s="3">
-        <f>+AJ7/AJ2</f>
+        <f t="shared" si="16"/>
         <v>5.6907612789278202E-2</v>
       </c>
       <c r="AL15" t="s">
@@ -3608,148 +3613,148 @@
         <v>7.3250508879062273E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="3">
-        <f>+B5/B2</f>
+        <f t="shared" ref="B16:AJ16" si="17">+B5/B2</f>
         <v>1.9476905954368393E-2</v>
       </c>
       <c r="C16" s="3">
-        <f>+C5/C2</f>
+        <f t="shared" si="17"/>
         <v>1.543980037429819E-2</v>
       </c>
       <c r="D16" s="3">
-        <f>+D5/D2</f>
+        <f t="shared" si="17"/>
         <v>1.8500486854917234E-2</v>
       </c>
       <c r="E16" s="3">
-        <f>+E5/E2</f>
+        <f t="shared" si="17"/>
         <v>1.9954819277108432E-2</v>
       </c>
       <c r="F16" s="3">
-        <f>+F5/F2</f>
+        <f t="shared" si="17"/>
         <v>2.0423600605143723E-2</v>
       </c>
       <c r="G16" s="3">
-        <f>+G5/G2</f>
+        <f t="shared" si="17"/>
         <v>1.5681544028950542E-2</v>
       </c>
       <c r="H16" s="3">
-        <f>+H5/H2</f>
+        <f t="shared" si="17"/>
         <v>1.8705270006506181E-2</v>
       </c>
       <c r="I16" s="3">
-        <f>+I5/I2</f>
+        <f t="shared" si="17"/>
         <v>1.7546446475965791E-2</v>
       </c>
       <c r="J16" s="3">
-        <f>+J5/J2</f>
+        <f t="shared" si="17"/>
         <v>2.6928980047439655E-2</v>
       </c>
       <c r="K16" s="3">
-        <f>+K5/K2</f>
+        <f t="shared" si="17"/>
         <v>3.0834340991535671E-2</v>
       </c>
       <c r="L16" s="3">
-        <f>+L5/L2</f>
+        <f t="shared" si="17"/>
         <v>2.826008861214226E-2</v>
       </c>
       <c r="M16" s="3">
-        <f>+M5/M2</f>
+        <f t="shared" si="17"/>
         <v>3.086482632168687E-2</v>
       </c>
       <c r="N16" s="3">
-        <f>+N5/N2</f>
+        <f t="shared" si="17"/>
         <v>3.4496962207805577E-2</v>
       </c>
       <c r="O16" s="3">
-        <f>+O5/O2</f>
+        <f t="shared" si="17"/>
         <v>3.9291465378421903E-2</v>
       </c>
       <c r="P16" s="3">
-        <f>+P5/P2</f>
+        <f t="shared" si="17"/>
         <v>4.8688634835238741E-2</v>
       </c>
       <c r="Q16" s="3">
-        <f>+Q5/Q2</f>
+        <f t="shared" si="17"/>
         <v>4.0974010770311403E-2</v>
       </c>
       <c r="R16" s="3">
-        <f>+R5/R2</f>
+        <f t="shared" si="17"/>
         <v>3.5383845961490377E-2</v>
       </c>
       <c r="S16" s="3">
-        <f>+S5/S2</f>
+        <f t="shared" si="17"/>
         <v>3.7891836031691356E-2</v>
       </c>
       <c r="T16" s="3">
-        <f>+T5/T2</f>
+        <f t="shared" si="17"/>
         <v>5.9943034697048161E-2</v>
       </c>
       <c r="U16" s="3">
-        <f>+U5/U2</f>
+        <f t="shared" si="17"/>
         <v>2.9349402968418703E-2</v>
       </c>
       <c r="V16" s="3">
-        <f>+V5/V2</f>
+        <f t="shared" si="17"/>
         <v>3.2012595119391231E-2</v>
       </c>
       <c r="W16" s="3">
-        <f>+W5/W2</f>
+        <f t="shared" si="17"/>
         <v>3.0470914127423827E-2</v>
       </c>
       <c r="X16" s="3">
-        <f>+X5/X2</f>
+        <f t="shared" si="17"/>
         <v>2.9244335305279607E-2</v>
       </c>
       <c r="Y16" s="3">
-        <f>+Y5/Y2</f>
+        <f t="shared" si="17"/>
         <v>2.3105706267539754E-2</v>
       </c>
       <c r="Z16" s="3">
-        <f>+Z5/Z2</f>
+        <f t="shared" si="17"/>
         <v>2.1497046576934249E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f>+AA5/AA2</f>
+        <f t="shared" si="17"/>
         <v>2.1579665643125211E-2</v>
       </c>
       <c r="AB16" s="3">
-        <f>+AB5/AB2</f>
+        <f t="shared" si="17"/>
         <v>2.050903725562523E-2</v>
       </c>
       <c r="AC16" s="3">
-        <f>+AC5/AC2</f>
+        <f t="shared" si="17"/>
         <v>1.6630999694283093E-2</v>
       </c>
       <c r="AD16" s="3">
-        <f>+AD5/AD2</f>
+        <f t="shared" si="17"/>
         <v>1.2850278062739594E-2</v>
       </c>
       <c r="AE16" s="3">
-        <f>+AE5/AE2</f>
+        <f t="shared" si="17"/>
         <v>1.281055900621118E-2</v>
       </c>
       <c r="AF16" s="3">
-        <f>+AF5/AF2</f>
+        <f t="shared" si="17"/>
         <v>1.9013480869632976E-2</v>
       </c>
       <c r="AG16" s="3">
-        <f>+AG5/AG2</f>
+        <f t="shared" si="17"/>
         <v>1.2906769188521213E-2</v>
       </c>
       <c r="AH16" s="3">
-        <f>+AH5/AH2</f>
+        <f t="shared" si="17"/>
         <v>1.5521064301552107E-2</v>
       </c>
       <c r="AI16" s="3">
-        <f>+AI5/AI2</f>
+        <f t="shared" si="17"/>
         <v>1.0150345166307403E-2</v>
       </c>
       <c r="AJ16" s="3">
-        <f>+AJ5/AJ2</f>
+        <f t="shared" si="17"/>
         <v>1.379184956234903E-2</v>
       </c>
       <c r="AL16" t="s">
@@ -3779,148 +3784,148 @@
         <v>1.3967852881308347E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="3">
-        <f>+B6/B2</f>
+        <f t="shared" ref="B17:AJ17" si="18">+B6/B2</f>
         <v>5.212391022073827E-2</v>
       </c>
       <c r="C17" s="3">
-        <f>+C6/C2</f>
+        <f t="shared" si="18"/>
         <v>4.7878976918278221E-2</v>
       </c>
       <c r="D17" s="3">
-        <f>+D6/D2</f>
+        <f t="shared" si="18"/>
         <v>6.1733203505355404E-2</v>
       </c>
       <c r="E17" s="3">
-        <f>+E6/E2</f>
+        <f t="shared" si="18"/>
         <v>6.3441265060240962E-2</v>
       </c>
       <c r="F17" s="3">
-        <f>+F6/F2</f>
+        <f t="shared" si="18"/>
         <v>6.4674735249621793E-2</v>
       </c>
       <c r="G17" s="3">
-        <f>+G6/G2</f>
+        <f t="shared" si="18"/>
         <v>5.3528347406513868E-2</v>
       </c>
       <c r="H17" s="3">
-        <f>+H6/H2</f>
+        <f t="shared" si="18"/>
         <v>5.8555627846454135E-2</v>
       </c>
       <c r="I17" s="3">
-        <f>+I6/I2</f>
+        <f t="shared" si="18"/>
         <v>5.662046593925095E-2</v>
       </c>
       <c r="J17" s="3">
-        <f>+J6/J2</f>
+        <f t="shared" si="18"/>
         <v>5.6788056369471186E-2</v>
       </c>
       <c r="K17" s="3">
-        <f>+K6/K2</f>
+        <f t="shared" si="18"/>
         <v>4.7762998790810154E-2</v>
       </c>
       <c r="L17" s="3">
-        <f>+L6/L2</f>
+        <f t="shared" si="18"/>
         <v>5.065261645311938E-2</v>
       </c>
       <c r="M17" s="3">
-        <f>+M6/M2</f>
+        <f t="shared" si="18"/>
         <v>4.3394112254252826E-2</v>
       </c>
       <c r="N17" s="3">
-        <f>+N6/N2</f>
+        <f t="shared" si="18"/>
         <v>4.42796828338997E-2</v>
       </c>
       <c r="O17" s="3">
-        <f>+O6/O2</f>
+        <f t="shared" si="18"/>
         <v>4.9275362318840575E-2</v>
       </c>
       <c r="P17" s="3">
-        <f>+P6/P2</f>
+        <f t="shared" si="18"/>
         <v>6.0255548083389371E-2</v>
       </c>
       <c r="Q17" s="3">
-        <f>+Q6/Q2</f>
+        <f t="shared" si="18"/>
         <v>5.4085694216811052E-2</v>
       </c>
       <c r="R17" s="3">
-        <f>+R6/R2</f>
+        <f t="shared" si="18"/>
         <v>6.2015503875968998E-2</v>
       </c>
       <c r="S17" s="3">
-        <f>+S6/S2</f>
+        <f t="shared" si="18"/>
         <v>6.3842002526122404E-2</v>
       </c>
       <c r="T17" s="3">
-        <f>+T6/T2</f>
+        <f t="shared" si="18"/>
         <v>6.4215432418436053E-2</v>
       </c>
       <c r="U17" s="3">
-        <f>+U6/U2</f>
+        <f t="shared" si="18"/>
         <v>7.4433656957928807E-2</v>
       </c>
       <c r="V17" s="3">
-        <f>+V6/V2</f>
+        <f t="shared" si="18"/>
         <v>7.1897139858304898E-2</v>
       </c>
       <c r="W17" s="3">
-        <f>+W6/W2</f>
+        <f t="shared" si="18"/>
         <v>6.3471034565819595E-2</v>
       </c>
       <c r="X17" s="3">
-        <f>+X6/X2</f>
+        <f t="shared" si="18"/>
         <v>6.4627748632659895E-2</v>
       </c>
       <c r="Y17" s="3">
-        <f>+Y6/Y2</f>
+        <f t="shared" si="18"/>
         <v>5.5098222637979422E-2</v>
       </c>
       <c r="Z17" s="3">
-        <f>+Z6/Z2</f>
+        <f t="shared" si="18"/>
         <v>6.3038636583712587E-2</v>
       </c>
       <c r="AA17" s="3">
-        <f>+AA6/AA2</f>
+        <f t="shared" si="18"/>
         <v>5.5868304332992148E-2</v>
       </c>
       <c r="AB17" s="3">
-        <f>+AB6/AB2</f>
+        <f t="shared" si="18"/>
         <v>5.2305422353375146E-2</v>
       </c>
       <c r="AC17" s="3">
-        <f>+AC6/AC2</f>
+        <f t="shared" si="18"/>
         <v>4.3289513910119225E-2</v>
       </c>
       <c r="AD17" s="3">
-        <f>+AD6/AD2</f>
+        <f t="shared" si="18"/>
         <v>4.0062631607364618E-2</v>
       </c>
       <c r="AE17" s="3">
-        <f>+AE6/AE2</f>
+        <f t="shared" si="18"/>
         <v>3.9208074534161488E-2</v>
       </c>
       <c r="AF17" s="3">
-        <f>+AF6/AF2</f>
+        <f t="shared" si="18"/>
         <v>6.0391178991662124E-2</v>
       </c>
       <c r="AG17" s="3">
-        <f>+AG6/AG2</f>
+        <f t="shared" si="18"/>
         <v>3.8811844935694992E-2</v>
       </c>
       <c r="AH17" s="3">
-        <f>+AH6/AH2</f>
+        <f t="shared" si="18"/>
         <v>5.2365900835023828E-2</v>
       </c>
       <c r="AI17" s="3">
-        <f>+AI6/AI2</f>
+        <f t="shared" si="18"/>
         <v>2.9687031024038853E-2</v>
       </c>
       <c r="AJ17" s="3">
-        <f>+AJ6/AJ2</f>
+        <f t="shared" si="18"/>
         <v>3.0181034258850419E-2</v>
       </c>
       <c r="AL17" t="s">
@@ -3950,148 +3955,148 @@
         <v>4.3124868393345964E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="3">
-        <f>+B8/B2</f>
+        <f t="shared" ref="B18:AJ18" si="19">+B8/B2</f>
         <v>4.6744574290484134E-2</v>
       </c>
       <c r="C18" s="3">
-        <f>+C8/C2</f>
+        <f t="shared" si="19"/>
         <v>7.4235807860262001E-2</v>
       </c>
       <c r="D18" s="3">
-        <f>+D8/D2</f>
+        <f t="shared" si="19"/>
         <v>4.6153846153846149E-2</v>
       </c>
       <c r="E18" s="3">
-        <f>+E8/E2</f>
+        <f t="shared" si="19"/>
         <v>2.0707831325301202E-2</v>
       </c>
       <c r="F18" s="3">
-        <f>+F8/F2</f>
+        <f t="shared" si="19"/>
         <v>4.2360060514372161E-2</v>
       </c>
       <c r="G18" s="3">
-        <f>+G8/G2</f>
+        <f t="shared" si="19"/>
         <v>5.0512665862484915E-2</v>
       </c>
       <c r="H18" s="3">
-        <f>+H8/H2</f>
+        <f t="shared" si="19"/>
         <v>3.4970722186076775E-2</v>
       </c>
       <c r="I18" s="3">
-        <f>+I8/I2</f>
+        <f t="shared" si="19"/>
         <v>2.5656148628723088E-2</v>
       </c>
       <c r="J18" s="3">
-        <f>+J8/J2</f>
+        <f t="shared" si="19"/>
         <v>1.297614064462118E-2</v>
       </c>
       <c r="K18" s="3">
-        <f>+K8/K2</f>
+        <f t="shared" si="19"/>
         <v>2.7448609431680773E-2</v>
       </c>
       <c r="L18" s="3">
-        <f>+L8/L2</f>
+        <f t="shared" si="19"/>
         <v>2.5386181295653214E-2</v>
       </c>
       <c r="M18" s="3">
-        <f>+M8/M2</f>
+        <f t="shared" si="19"/>
         <v>4.2273607008250988E-2</v>
       </c>
       <c r="N18" s="3">
-        <f>+N8/N2</f>
+        <f t="shared" si="19"/>
         <v>2.9348161878282361E-2</v>
       </c>
       <c r="O18" s="3">
-        <f>+O8/O2</f>
+        <f t="shared" si="19"/>
         <v>2.758990874932904E-2</v>
       </c>
       <c r="P18" s="3">
-        <f>+P8/P2</f>
+        <f t="shared" si="19"/>
         <v>1.7350369872225959E-2</v>
       </c>
       <c r="Q18" s="3">
-        <f>+Q8/Q2</f>
+        <f t="shared" si="19"/>
         <v>3.5237649262467807E-2</v>
       </c>
       <c r="R18" s="3">
-        <f>+R8/R2</f>
+        <f t="shared" si="19"/>
         <v>4.1135283820955236E-2</v>
       </c>
       <c r="S18" s="3">
-        <f>+S8/S2</f>
+        <f t="shared" si="19"/>
         <v>3.1921001263061202E-2</v>
       </c>
       <c r="T18" s="3">
-        <f>+T8/T2</f>
+        <f t="shared" si="19"/>
         <v>2.0067322630761265E-2</v>
       </c>
       <c r="U18" s="3">
-        <f>+U8/U2</f>
+        <f t="shared" si="19"/>
         <v>1.0489900680727597E-2</v>
       </c>
       <c r="V18" s="3">
-        <f>+V8/V2</f>
+        <f t="shared" si="19"/>
         <v>3.9884544738913667E-2</v>
       </c>
       <c r="W18" s="3">
-        <f>+W8/W2</f>
+        <f t="shared" si="19"/>
         <v>4.5043960014452607E-2</v>
       </c>
       <c r="X18" s="3">
-        <f>+X8/X2</f>
+        <f t="shared" si="19"/>
         <v>1.9086951668713027E-2</v>
       </c>
       <c r="Y18" s="3">
-        <f>+Y8/Y2</f>
+        <f t="shared" si="19"/>
         <v>3.6576239476145932E-2</v>
       </c>
       <c r="Z18" s="3">
-        <f>+Z8/Z2</f>
+        <f t="shared" si="19"/>
         <v>2.8178561053548948E-2</v>
       </c>
       <c r="AA18" s="3">
-        <f>+AA8/AA2</f>
+        <f t="shared" si="19"/>
         <v>4.350051177072671E-2</v>
       </c>
       <c r="AB18" s="3">
-        <f>+AB8/AB2</f>
+        <f t="shared" si="19"/>
         <v>6.6248616746587968E-2</v>
       </c>
       <c r="AC18" s="3">
-        <f>+AC8/AC2</f>
+        <f t="shared" si="19"/>
         <v>0.10100886579027819</v>
       </c>
       <c r="AD18" s="3">
-        <f>+AD8/AD2</f>
+        <f t="shared" si="19"/>
         <v>0.1188380756978565</v>
       </c>
       <c r="AE18" s="3">
-        <f>+AE8/AE2</f>
+        <f t="shared" si="19"/>
         <v>0.11934338952972492</v>
       </c>
       <c r="AF18" s="3">
-        <f>+AF8/AF2</f>
+        <f t="shared" si="19"/>
         <v>7.7222785007402789E-2</v>
       </c>
       <c r="AG18" s="3">
-        <f>+AG8/AG2</f>
+        <f t="shared" si="19"/>
         <v>0.10380337772895785</v>
       </c>
       <c r="AH18" s="3">
-        <f>+AH8/AH2</f>
+        <f t="shared" si="19"/>
         <v>8.1379440486861354E-2</v>
       </c>
       <c r="AI18" s="3">
-        <f>+AI8/AI2</f>
+        <f t="shared" si="19"/>
         <v>0.10136702229255914</v>
       </c>
       <c r="AJ18" s="3">
-        <f>+AJ8/AJ2</f>
+        <f t="shared" si="19"/>
         <v>9.8257188124983769E-2</v>
       </c>
       <c r="AL18" t="s">
@@ -4122,185 +4127,185 @@
         <v>0.10684354600968625</v>
       </c>
     </row>
-    <row r="19" spans="1:65">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:AJ19" si="16">+B11/B10</f>
+        <f t="shared" ref="B19:AJ19" si="20">+B11/B10</f>
         <v>0.35687732342007433</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.28755364806866951</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31623931623931628</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.48076923076923073</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.32047477744807124</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.2061855670103093</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.19526627218934911</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.4594594594594586E-2</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.98113207547169823</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.2153846153846154</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.3167082294264339</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.20912547528517109</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.18367346938775511</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.15808823529411764</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.25368731563421831</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.8358208955223885E-2</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.6250000000000001E-2</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.85185185185185197</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.12802768166089967</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.14868804664723032</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.0810810810810811E-2</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4.3243243243243246E-2</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11619718309859155</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.15415821501014199</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.17438105489773947</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.15514131088394467</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.17350579839429081</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.14292612264606472</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11156601842374617</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.13892587660896583</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11393119007332204</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.1730444569499156</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.2342318764721271E-2</v>
       </c>
       <c r="AL19" t="s">
         <v>70</v>
       </c>
       <c r="AM19">
-        <f>+AM18/Folha1!L3</f>
+        <f>+AM18/main!L3</f>
         <v>33.925828654337074</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" ref="AR19:AV19" si="17">+AR11/AR10</f>
+        <f t="shared" ref="AR19:AV19" si="21">+AR11/AR10</f>
         <v>0.16648044692737429</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.4198113207547169E-2</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.8178752107925807E-2</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15706650831353919</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.14675858411772505</v>
       </c>
     </row>
-    <row r="20" spans="1:65">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="AM20" s="3">
-        <f>+AM19/Folha1!L2-1</f>
+        <f>+AM19/main!L2-1</f>
         <v>0.35703314617348303</v>
       </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -4319,71 +4324,71 @@
         <v>923.01760999999988</v>
       </c>
       <c r="AX21">
-        <f t="shared" ref="AX21:BM21" si="18">+AW21+AX12</f>
+        <f t="shared" ref="AX21:BM21" si="22">+AW21+AX12</f>
         <v>1642.7050715199998</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2453.6069057596396</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3364.8126913256801</v>
       </c>
       <c r="BA21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4386.2378522728241</v>
       </c>
       <c r="BB21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5528.6954024305551</v>
       </c>
       <c r="BC21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6803.9737740147884</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8224.9212394981751</v>
       </c>
       <c r="BE21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9805.5374779519079</v>
       </c>
       <c r="BF21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11561.072882799592</v>
       </c>
       <c r="BG21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13508.136257427566</v>
       </c>
       <c r="BH21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15664.811598686956</v>
       </c>
       <c r="BI21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>18050.784726337133</v>
       </c>
       <c r="BJ21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20687.480579282514</v>
       </c>
       <c r="BK21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>23598.212067438704</v>
       </c>
       <c r="BL21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>26808.341441656452</v>
       </c>
       <c r="BM21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>30345.455223794444</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>3674.7</v>
       </c>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>3179.4</v>
       </c>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -4439,7 +4444,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>1148.3</v>
       </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>1445.6</v>
       </c>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -4475,7 +4480,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>205.1</v>
       </c>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>290.2</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -4501,7 +4506,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>290.3</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>1702.6</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>1374.7</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>776.8</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -4565,7 +4570,7 @@
         <v>134.69999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -4585,7 +4590,7 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4614,7 +4619,7 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>1972.2</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>538.4</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4655,7 +4660,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4683,7 +4688,7 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
